--- a/quizzes/week3/w3_calcs.xlsx
+++ b/quizzes/week3/w3_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\quizzes\week3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1F5EC1-0A02-4C3A-AA71-4E2CF4B5B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8A4240-2B9B-4540-88ED-31C1DF1F4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{2814C22B-8DB2-432C-A2D5-A4D119F96EA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0F7E80EF-D48E-4510-842D-75B7F8EC6273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>Price</t>
   </si>
@@ -47,26 +69,129 @@
     <t>Reception</t>
   </si>
   <si>
-    <t>Coaxial Speakers</t>
+    <t>Tweeters</t>
   </si>
   <si>
-    <t>Component Speakers</t>
+    <t>Criterion</t>
   </si>
   <si>
-    <t>Tweeters</t>
+    <t>Coaxial</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Comparison Matrices</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Weights and Priorities</t>
+  </si>
+  <si>
+    <t>PART A</t>
+  </si>
+  <si>
+    <t>WEEK 3 QUIZ - AHP</t>
+  </si>
+  <si>
+    <t>PART B</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>WS/Priority</t>
+  </si>
+  <si>
+    <t>Consistency Check</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Consistent?</t>
+  </si>
+  <si>
+    <t>PART C</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Decision?</t>
+  </si>
+  <si>
+    <t>WS = Weighted Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -85,27 +210,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFA3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFA3A3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -115,6 +530,4375 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent6_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent6" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{97B2F135-8582-4DF8-999D-598AE579EF29}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent6_2" csCatId="accent6" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BE8A5327-0351-4B90-9F74-DD942FC783DE}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Price .7071</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E8236C76-359F-4EAE-9321-BFAFA0D34752}" type="parTrans" cxnId="{796F9F08-A320-46FB-9BBF-EC6B1D5FFB2B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{64B15E9F-403C-4E93-B692-7432FBF51059}" type="sibTrans" cxnId="{796F9F08-A320-46FB-9BBF-EC6B1D5FFB2B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1203B08E-F224-4FA0-8C72-E1AA21C77A46}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Coaxial .7146</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{790074F5-DA8A-4C17-83DE-F7E1C78E59B3}" type="parTrans" cxnId="{02DD7F68-0415-4247-8F85-B52B8078F1B8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C9C9FE6-B62A-4B43-BDF7-A273CAAE1AE5}" type="sibTrans" cxnId="{02DD7F68-0415-4247-8F85-B52B8078F1B8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CEDFB8E6-D077-4CEC-983B-D17185715DC4}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Component .0789</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{745F1D45-BC81-4726-9E61-C93F1E2909F1}" type="parTrans" cxnId="{AB33336F-0F6B-44BC-A66C-C57062F0DC4E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C94B8BBE-FFAF-4759-BED8-F7D60C26473C}" type="sibTrans" cxnId="{AB33336F-0F6B-44BC-A66C-C57062F0DC4E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Sound .2014</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B4F3BA4C-3582-4452-8B6A-4B112263B162}" type="parTrans" cxnId="{7B62BF2D-1493-4091-A6F7-1C7215AC86B7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ECA04F16-7407-4F9E-BB66-34103B1B942F}" type="sibTrans" cxnId="{7B62BF2D-1493-4091-A6F7-1C7215AC86B7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7655D6B-373A-4321-8210-54A86D32DC62}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Coaxial .1226</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{21AE04FE-123D-4E15-A84D-50620A936ED8}" type="parTrans" cxnId="{C7FC456F-27B7-44FA-93E8-C9A492367F2C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4461DB57-34E4-4846-95F2-CF6FEBF90DD3}" type="sibTrans" cxnId="{C7FC456F-27B7-44FA-93E8-C9A492367F2C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DF6188F2-7974-4B8A-B9B2-5B070100CAA4}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Tweeters .5571</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{44A49D99-89D5-494B-8763-FA949A7119AF}" type="parTrans" cxnId="{3992B65B-EB66-4427-B222-392930293C7E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D1D7B31E-2A03-4BCF-AFD0-8B5B00FE5377}" type="sibTrans" cxnId="{3992B65B-EB66-4427-B222-392930293C7E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Reception .0915</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{342D0429-3E15-40A6-B658-819186AE8855}" type="parTrans" cxnId="{DE995F31-A316-45C1-9263-1205FF3BA61F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BD68D4EA-EA37-475A-923A-1E1BB41F7664}" type="sibTrans" cxnId="{DE995F31-A316-45C1-9263-1205FF3BA61F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{76828E4C-DC94-44AE-86AB-BD2F311BD4E2}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Tweeters .2064</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{262B5601-DA0E-4AEF-9CDB-2433B10C6716}" type="parTrans" cxnId="{D2EB87CC-FDF6-4DE2-9F5E-54391CF066A4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B7ACC865-EC27-4EDF-A4C7-209A1B6982E5}" type="sibTrans" cxnId="{D2EB87CC-FDF6-4DE2-9F5E-54391CF066A4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD724F25-4396-44DE-B722-BA4C86D0C888}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Component .3202</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{99B0B6D6-3518-4EBE-AE06-CDA51011755D}" type="parTrans" cxnId="{17EFD708-CEF0-4733-9324-E7046DB6A2C1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6808F91F-EBCB-4D41-846C-911F3D4E4FFC}" type="sibTrans" cxnId="{17EFD708-CEF0-4733-9324-E7046DB6A2C1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F1923EF5-88A4-49C8-BE7F-BE33C2E7A455}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Coaxial .5794</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D2E293AD-9DFF-4B1F-866A-E1B45E61EEC3}" type="parTrans" cxnId="{1728636B-075C-49E4-8A40-96968AB47B7A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E994CFEB-D765-4C2C-8054-0A9C670B929A}" type="sibTrans" cxnId="{1728636B-075C-49E4-8A40-96968AB47B7A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BC917A9C-D3AA-455A-8808-112A72C6259C}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Component .1865</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F77400C6-B450-42D6-9643-6819DE650034}" type="parTrans" cxnId="{CBCC54BC-9847-4D10-80A2-719629AE611F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{898DA271-BE22-41E6-B52F-EC60FE1CB14B}" type="sibTrans" cxnId="{CBCC54BC-9847-4D10-80A2-719629AE611F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9C3D1045-3CEB-4D14-AC92-D3A61266D821}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>Tweeters .2341</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{46B69B36-21DF-4B26-B97B-C4407E945214}" type="parTrans" cxnId="{6561DC92-AF8F-4745-91CB-94C146789965}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7BFC2B42-8669-49BF-B247-606BF2A3DF58}" type="sibTrans" cxnId="{6561DC92-AF8F-4745-91CB-94C146789965}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EFA63D21-55F6-477C-9C70-44EB2AD3BFDA}" type="pres">
+      <dgm:prSet presAssocID="{97B2F135-8582-4DF8-999D-598AE579EF29}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9B47747C-84AC-49F5-8111-DA66F1E0D910}" type="pres">
+      <dgm:prSet presAssocID="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D277AB2B-73CB-4FCF-B226-E2FF532EA4B7}" type="pres">
+      <dgm:prSet presAssocID="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76B60D10-A42F-4D87-AF32-476769E55E48}" type="pres">
+      <dgm:prSet presAssocID="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" presName="rootText" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3" custScaleX="110450"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C91F4245-4AA6-4C05-9225-5C11DFFA4328}" type="pres">
+      <dgm:prSet presAssocID="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{99DC4C3D-B6D3-40DD-B2AF-DF415CC06465}" type="pres">
+      <dgm:prSet presAssocID="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{54612B88-47BC-44DB-BD5A-00B3DA781F6C}" type="pres">
+      <dgm:prSet presAssocID="{790074F5-DA8A-4C17-83DE-F7E1C78E59B3}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FC749C24-999E-41BF-94CF-E2D02F36F7E8}" type="pres">
+      <dgm:prSet presAssocID="{1203B08E-F224-4FA0-8C72-E1AA21C77A46}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="0" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{275E53FF-EA8E-4E2B-9470-482902755263}" type="pres">
+      <dgm:prSet presAssocID="{745F1D45-BC81-4726-9E61-C93F1E2909F1}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FFCEFFBB-A4AC-45F2-A8A6-F5ACD2EBC056}" type="pres">
+      <dgm:prSet presAssocID="{CEDFB8E6-D077-4CEC-983B-D17185715DC4}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="1" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A23D3FAF-64E7-460F-A681-3925FE70E677}" type="pres">
+      <dgm:prSet presAssocID="{262B5601-DA0E-4AEF-9CDB-2433B10C6716}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28476EDC-C5FE-43C9-86D5-2ABB28DB15AB}" type="pres">
+      <dgm:prSet presAssocID="{76828E4C-DC94-44AE-86AB-BD2F311BD4E2}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="2" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{819BDB7A-61CA-4035-9AC5-E8873AD0B75E}" type="pres">
+      <dgm:prSet presAssocID="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C15E0F16-F4A0-4BB9-B5B1-008180F82818}" type="pres">
+      <dgm:prSet presAssocID="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{41B6750F-A304-4939-9B06-66453410227F}" type="pres">
+      <dgm:prSet presAssocID="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" presName="rootText" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3" custScaleX="137450"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3CA28B4E-DF1A-4BB7-B8FE-5E3551C949F0}" type="pres">
+      <dgm:prSet presAssocID="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E311D9B3-9F04-435A-983D-30A6B18D194D}" type="pres">
+      <dgm:prSet presAssocID="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E4806C1B-3BEA-4116-9450-1A02DDE3242C}" type="pres">
+      <dgm:prSet presAssocID="{21AE04FE-123D-4E15-A84D-50620A936ED8}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BEBD5F2B-346F-4C66-88CB-357629CE8E2F}" type="pres">
+      <dgm:prSet presAssocID="{D7655D6B-373A-4321-8210-54A86D32DC62}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="3" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A3131442-2358-40F7-A61D-2270904425EE}" type="pres">
+      <dgm:prSet presAssocID="{99B0B6D6-3518-4EBE-AE06-CDA51011755D}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BC7A05EE-2176-4AF3-8C9B-A693E639F235}" type="pres">
+      <dgm:prSet presAssocID="{DD724F25-4396-44DE-B722-BA4C86D0C888}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="4" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C65E5099-762E-458F-86AC-901C81AB07C2}" type="pres">
+      <dgm:prSet presAssocID="{44A49D99-89D5-494B-8763-FA949A7119AF}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6AA91A2B-F929-4124-B817-A6BF54A21706}" type="pres">
+      <dgm:prSet presAssocID="{DF6188F2-7974-4B8A-B9B2-5B070100CAA4}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="5" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1CE48392-CDF9-4266-947A-0B492BC768E9}" type="pres">
+      <dgm:prSet presAssocID="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D9562FC0-41B7-4271-9901-D4FF74B07F06}" type="pres">
+      <dgm:prSet presAssocID="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2F106104-BFC9-4643-9411-738AA8E0731D}" type="pres">
+      <dgm:prSet presAssocID="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" presName="rootText" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3" custScaleX="144629"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F1828722-CC1F-4541-BE30-E18331151943}" type="pres">
+      <dgm:prSet presAssocID="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E536B9FC-751B-49C5-B57C-0BDD389BE145}" type="pres">
+      <dgm:prSet presAssocID="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{66418AE5-6BEB-4E2F-A6C8-C76C7C78DEE7}" type="pres">
+      <dgm:prSet presAssocID="{D2E293AD-9DFF-4B1F-866A-E1B45E61EEC3}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2B924A54-3462-432D-936D-34213FB98075}" type="pres">
+      <dgm:prSet presAssocID="{F1923EF5-88A4-49C8-BE7F-BE33C2E7A455}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="6" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{635C2C83-21D8-4394-AA41-4687DF62CEB5}" type="pres">
+      <dgm:prSet presAssocID="{F77400C6-B450-42D6-9643-6819DE650034}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76A8B9AD-B619-4883-B848-3C35E7541D19}" type="pres">
+      <dgm:prSet presAssocID="{BC917A9C-D3AA-455A-8808-112A72C6259C}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="7" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D5CD04AD-5B14-43F8-A06C-5CD1476C1C32}" type="pres">
+      <dgm:prSet presAssocID="{46B69B36-21DF-4B26-B97B-C4407E945214}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{38115F9F-58B2-45CB-AEDC-F9F95195C14D}" type="pres">
+      <dgm:prSet presAssocID="{9C3D1045-3CEB-4D14-AC92-D3A61266D821}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="8" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{796F9F08-A320-46FB-9BBF-EC6B1D5FFB2B}" srcId="{97B2F135-8582-4DF8-999D-598AE579EF29}" destId="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" srcOrd="0" destOrd="0" parTransId="{E8236C76-359F-4EAE-9321-BFAFA0D34752}" sibTransId="{64B15E9F-403C-4E93-B692-7432FBF51059}"/>
+    <dgm:cxn modelId="{17EFD708-CEF0-4733-9324-E7046DB6A2C1}" srcId="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" destId="{DD724F25-4396-44DE-B722-BA4C86D0C888}" srcOrd="1" destOrd="0" parTransId="{99B0B6D6-3518-4EBE-AE06-CDA51011755D}" sibTransId="{6808F91F-EBCB-4D41-846C-911F3D4E4FFC}"/>
+    <dgm:cxn modelId="{388E3B0E-8BBB-4EA5-828F-B4DA8CB703E4}" type="presOf" srcId="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" destId="{C91F4245-4AA6-4C05-9225-5C11DFFA4328}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{E7784B1D-A67E-4692-9882-89B4E2D0A423}" type="presOf" srcId="{F1923EF5-88A4-49C8-BE7F-BE33C2E7A455}" destId="{2B924A54-3462-432D-936D-34213FB98075}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{B4A68C1D-0423-4DE5-A383-9EEB7C45752D}" type="presOf" srcId="{F77400C6-B450-42D6-9643-6819DE650034}" destId="{635C2C83-21D8-4394-AA41-4687DF62CEB5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7B62BF2D-1493-4091-A6F7-1C7215AC86B7}" srcId="{97B2F135-8582-4DF8-999D-598AE579EF29}" destId="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" srcOrd="1" destOrd="0" parTransId="{B4F3BA4C-3582-4452-8B6A-4B112263B162}" sibTransId="{ECA04F16-7407-4F9E-BB66-34103B1B942F}"/>
+    <dgm:cxn modelId="{DE995F31-A316-45C1-9263-1205FF3BA61F}" srcId="{97B2F135-8582-4DF8-999D-598AE579EF29}" destId="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" srcOrd="2" destOrd="0" parTransId="{342D0429-3E15-40A6-B658-819186AE8855}" sibTransId="{BD68D4EA-EA37-475A-923A-1E1BB41F7664}"/>
+    <dgm:cxn modelId="{C890D431-7AF3-4521-BBEC-9A6A16302DEB}" type="presOf" srcId="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" destId="{F1828722-CC1F-4541-BE30-E18331151943}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F3627740-D10A-4FE7-9E68-3824786B432F}" type="presOf" srcId="{745F1D45-BC81-4726-9E61-C93F1E2909F1}" destId="{275E53FF-EA8E-4E2B-9470-482902755263}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3992B65B-EB66-4427-B222-392930293C7E}" srcId="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" destId="{DF6188F2-7974-4B8A-B9B2-5B070100CAA4}" srcOrd="2" destOrd="0" parTransId="{44A49D99-89D5-494B-8763-FA949A7119AF}" sibTransId="{D1D7B31E-2A03-4BCF-AFD0-8B5B00FE5377}"/>
+    <dgm:cxn modelId="{DDA37860-DEE0-451D-A46A-B4EA40461E64}" type="presOf" srcId="{DF6188F2-7974-4B8A-B9B2-5B070100CAA4}" destId="{6AA91A2B-F929-4124-B817-A6BF54A21706}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D7C61D46-723A-4D41-A88E-79CCBFC97000}" type="presOf" srcId="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" destId="{76B60D10-A42F-4D87-AF32-476769E55E48}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{91AD7267-6232-457E-87A2-372D56A0BA43}" type="presOf" srcId="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" destId="{3CA28B4E-DF1A-4BB7-B8FE-5E3551C949F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3A279467-D57A-4851-9938-D203E58253BD}" type="presOf" srcId="{9C3D1045-3CEB-4D14-AC92-D3A61266D821}" destId="{38115F9F-58B2-45CB-AEDC-F9F95195C14D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{02DD7F68-0415-4247-8F85-B52B8078F1B8}" srcId="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" destId="{1203B08E-F224-4FA0-8C72-E1AA21C77A46}" srcOrd="0" destOrd="0" parTransId="{790074F5-DA8A-4C17-83DE-F7E1C78E59B3}" sibTransId="{7C9C9FE6-B62A-4B43-BDF7-A273CAAE1AE5}"/>
+    <dgm:cxn modelId="{1728636B-075C-49E4-8A40-96968AB47B7A}" srcId="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" destId="{F1923EF5-88A4-49C8-BE7F-BE33C2E7A455}" srcOrd="0" destOrd="0" parTransId="{D2E293AD-9DFF-4B1F-866A-E1B45E61EEC3}" sibTransId="{E994CFEB-D765-4C2C-8054-0A9C670B929A}"/>
+    <dgm:cxn modelId="{AB33336F-0F6B-44BC-A66C-C57062F0DC4E}" srcId="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" destId="{CEDFB8E6-D077-4CEC-983B-D17185715DC4}" srcOrd="1" destOrd="0" parTransId="{745F1D45-BC81-4726-9E61-C93F1E2909F1}" sibTransId="{C94B8BBE-FFAF-4759-BED8-F7D60C26473C}"/>
+    <dgm:cxn modelId="{C7FC456F-27B7-44FA-93E8-C9A492367F2C}" srcId="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" destId="{D7655D6B-373A-4321-8210-54A86D32DC62}" srcOrd="0" destOrd="0" parTransId="{21AE04FE-123D-4E15-A84D-50620A936ED8}" sibTransId="{4461DB57-34E4-4846-95F2-CF6FEBF90DD3}"/>
+    <dgm:cxn modelId="{6FE7DF8A-FA39-4550-BB2E-4F53B38B5949}" type="presOf" srcId="{DD724F25-4396-44DE-B722-BA4C86D0C888}" destId="{BC7A05EE-2176-4AF3-8C9B-A693E639F235}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{ABB8038C-9851-40D0-98F4-8C8AFAACA596}" type="presOf" srcId="{99B0B6D6-3518-4EBE-AE06-CDA51011755D}" destId="{A3131442-2358-40F7-A61D-2270904425EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{6561DC92-AF8F-4745-91CB-94C146789965}" srcId="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" destId="{9C3D1045-3CEB-4D14-AC92-D3A61266D821}" srcOrd="2" destOrd="0" parTransId="{46B69B36-21DF-4B26-B97B-C4407E945214}" sibTransId="{7BFC2B42-8669-49BF-B247-606BF2A3DF58}"/>
+    <dgm:cxn modelId="{2018BF9D-D196-46E6-876A-1E7CBDF29316}" type="presOf" srcId="{CEDFB8E6-D077-4CEC-983B-D17185715DC4}" destId="{FFCEFFBB-A4AC-45F2-A8A6-F5ACD2EBC056}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FBF1A5A2-5E53-40AF-848E-4CFF8B53EFAF}" type="presOf" srcId="{21AE04FE-123D-4E15-A84D-50620A936ED8}" destId="{E4806C1B-3BEA-4116-9450-1A02DDE3242C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{59857CB7-BD4A-415E-9BF2-A007B2099775}" type="presOf" srcId="{1203B08E-F224-4FA0-8C72-E1AA21C77A46}" destId="{FC749C24-999E-41BF-94CF-E2D02F36F7E8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F8111ABA-C504-481C-ABDF-057E690605E7}" type="presOf" srcId="{44A49D99-89D5-494B-8763-FA949A7119AF}" destId="{C65E5099-762E-458F-86AC-901C81AB07C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{173CD8BA-4E9A-47C1-BDB2-51C762F95730}" type="presOf" srcId="{D7655D6B-373A-4321-8210-54A86D32DC62}" destId="{BEBD5F2B-346F-4C66-88CB-357629CE8E2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{CBCC54BC-9847-4D10-80A2-719629AE611F}" srcId="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" destId="{BC917A9C-D3AA-455A-8808-112A72C6259C}" srcOrd="1" destOrd="0" parTransId="{F77400C6-B450-42D6-9643-6819DE650034}" sibTransId="{898DA271-BE22-41E6-B52F-EC60FE1CB14B}"/>
+    <dgm:cxn modelId="{5CDA8BC4-1538-4EC4-859C-0ECF5E412BDB}" type="presOf" srcId="{F63AFB70-8E18-4D54-8AE3-BB392A10DF13}" destId="{2F106104-BFC9-4643-9411-738AA8E0731D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{19D275C5-74C3-4426-ACD9-B5EA261E096E}" type="presOf" srcId="{262B5601-DA0E-4AEF-9CDB-2433B10C6716}" destId="{A23D3FAF-64E7-460F-A681-3925FE70E677}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D2EB87CC-FDF6-4DE2-9F5E-54391CF066A4}" srcId="{BE8A5327-0351-4B90-9F74-DD942FC783DE}" destId="{76828E4C-DC94-44AE-86AB-BD2F311BD4E2}" srcOrd="2" destOrd="0" parTransId="{262B5601-DA0E-4AEF-9CDB-2433B10C6716}" sibTransId="{B7ACC865-EC27-4EDF-A4C7-209A1B6982E5}"/>
+    <dgm:cxn modelId="{E0F402DE-9955-400A-9F15-571A41A98F1C}" type="presOf" srcId="{D2E293AD-9DFF-4B1F-866A-E1B45E61EEC3}" destId="{66418AE5-6BEB-4E2F-A6C8-C76C7C78DEE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7D47D7E6-5CAD-48A9-9212-F6F55787A59E}" type="presOf" srcId="{46B69B36-21DF-4B26-B97B-C4407E945214}" destId="{D5CD04AD-5B14-43F8-A06C-5CD1476C1C32}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C0995EF1-13AE-4ED2-A22A-9CF456B0757C}" type="presOf" srcId="{95D2DDA0-EE6B-42DA-A0E7-D784389B9FAE}" destId="{41B6750F-A304-4939-9B06-66453410227F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{DB3074F8-8FF8-42D8-84C6-61B6FC2B129B}" type="presOf" srcId="{97B2F135-8582-4DF8-999D-598AE579EF29}" destId="{EFA63D21-55F6-477C-9C70-44EB2AD3BFDA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FCC9A1F9-5E09-4B8C-893E-AC30B2C9CBB4}" type="presOf" srcId="{790074F5-DA8A-4C17-83DE-F7E1C78E59B3}" destId="{54612B88-47BC-44DB-BD5A-00B3DA781F6C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{904EA9F9-F7F7-4E7D-906D-4A1790080618}" type="presOf" srcId="{BC917A9C-D3AA-455A-8808-112A72C6259C}" destId="{76A8B9AD-B619-4883-B848-3C35E7541D19}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{E2553CFB-B25B-4077-A6B2-95279E828FA9}" type="presOf" srcId="{76828E4C-DC94-44AE-86AB-BD2F311BD4E2}" destId="{28476EDC-C5FE-43C9-86D5-2ABB28DB15AB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1D318A6F-1279-4649-A00B-EFD795D8C544}" type="presParOf" srcId="{EFA63D21-55F6-477C-9C70-44EB2AD3BFDA}" destId="{9B47747C-84AC-49F5-8111-DA66F1E0D910}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{85FBD217-E6F9-4289-AC3F-83F0C4BE951B}" type="presParOf" srcId="{9B47747C-84AC-49F5-8111-DA66F1E0D910}" destId="{D277AB2B-73CB-4FCF-B226-E2FF532EA4B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{5673A6F1-85DD-4E3F-A58E-F09E648C5E77}" type="presParOf" srcId="{D277AB2B-73CB-4FCF-B226-E2FF532EA4B7}" destId="{76B60D10-A42F-4D87-AF32-476769E55E48}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C1B3EA4D-5DAE-4A43-9198-1C2539951F45}" type="presParOf" srcId="{D277AB2B-73CB-4FCF-B226-E2FF532EA4B7}" destId="{C91F4245-4AA6-4C05-9225-5C11DFFA4328}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{BBFC9BA1-7932-4B13-B4A7-2925CF2F4A76}" type="presParOf" srcId="{9B47747C-84AC-49F5-8111-DA66F1E0D910}" destId="{99DC4C3D-B6D3-40DD-B2AF-DF415CC06465}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{5D65DE2C-625A-4E69-98ED-A9904A3A4AEF}" type="presParOf" srcId="{99DC4C3D-B6D3-40DD-B2AF-DF415CC06465}" destId="{54612B88-47BC-44DB-BD5A-00B3DA781F6C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3D1663A5-AB01-49E6-A01A-2C8A42D5E0E0}" type="presParOf" srcId="{99DC4C3D-B6D3-40DD-B2AF-DF415CC06465}" destId="{FC749C24-999E-41BF-94CF-E2D02F36F7E8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8BE22300-B9F3-42BE-A273-FDF11D42C311}" type="presParOf" srcId="{99DC4C3D-B6D3-40DD-B2AF-DF415CC06465}" destId="{275E53FF-EA8E-4E2B-9470-482902755263}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F4C646D7-A7E4-4383-A46F-0D8010F88179}" type="presParOf" srcId="{99DC4C3D-B6D3-40DD-B2AF-DF415CC06465}" destId="{FFCEFFBB-A4AC-45F2-A8A6-F5ACD2EBC056}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4C789C26-2C67-4C2F-9392-B4908A063D15}" type="presParOf" srcId="{99DC4C3D-B6D3-40DD-B2AF-DF415CC06465}" destId="{A23D3FAF-64E7-460F-A681-3925FE70E677}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FFB11A9E-6AFE-4CB7-99B4-2D227153F75E}" type="presParOf" srcId="{99DC4C3D-B6D3-40DD-B2AF-DF415CC06465}" destId="{28476EDC-C5FE-43C9-86D5-2ABB28DB15AB}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{9E67D4E8-DA1D-47E7-A014-40B5FD652C96}" type="presParOf" srcId="{EFA63D21-55F6-477C-9C70-44EB2AD3BFDA}" destId="{819BDB7A-61CA-4035-9AC5-E8873AD0B75E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D1B2D94F-682E-40C5-8111-971A7724EAE2}" type="presParOf" srcId="{819BDB7A-61CA-4035-9AC5-E8873AD0B75E}" destId="{C15E0F16-F4A0-4BB9-B5B1-008180F82818}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{232DE416-9A8D-4003-A8EA-347BE5F62261}" type="presParOf" srcId="{C15E0F16-F4A0-4BB9-B5B1-008180F82818}" destId="{41B6750F-A304-4939-9B06-66453410227F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8D8A0A9E-2B92-421C-B6F1-D85B10C4D969}" type="presParOf" srcId="{C15E0F16-F4A0-4BB9-B5B1-008180F82818}" destId="{3CA28B4E-DF1A-4BB7-B8FE-5E3551C949F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{E64801D1-FEC2-4F1D-9C9B-7CB6A018E13E}" type="presParOf" srcId="{819BDB7A-61CA-4035-9AC5-E8873AD0B75E}" destId="{E311D9B3-9F04-435A-983D-30A6B18D194D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F3BECE4C-FBC4-422B-9C6B-0038AD9DAF1B}" type="presParOf" srcId="{E311D9B3-9F04-435A-983D-30A6B18D194D}" destId="{E4806C1B-3BEA-4116-9450-1A02DDE3242C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4D3F711E-977D-4DD3-BF46-D67DC82650CE}" type="presParOf" srcId="{E311D9B3-9F04-435A-983D-30A6B18D194D}" destId="{BEBD5F2B-346F-4C66-88CB-357629CE8E2F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D2A14C2A-5AD0-42F8-9E61-5707CBCC2D9E}" type="presParOf" srcId="{E311D9B3-9F04-435A-983D-30A6B18D194D}" destId="{A3131442-2358-40F7-A61D-2270904425EE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{2F8A7D39-C36D-415D-9A66-3C33FAB4F105}" type="presParOf" srcId="{E311D9B3-9F04-435A-983D-30A6B18D194D}" destId="{BC7A05EE-2176-4AF3-8C9B-A693E639F235}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7447DFFF-1817-4103-9DC8-1967F420A96B}" type="presParOf" srcId="{E311D9B3-9F04-435A-983D-30A6B18D194D}" destId="{C65E5099-762E-458F-86AC-901C81AB07C2}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{6F4401E4-3453-45C0-B9C0-5B5A7980D749}" type="presParOf" srcId="{E311D9B3-9F04-435A-983D-30A6B18D194D}" destId="{6AA91A2B-F929-4124-B817-A6BF54A21706}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A4B32152-52C4-4627-930A-03646081EE44}" type="presParOf" srcId="{EFA63D21-55F6-477C-9C70-44EB2AD3BFDA}" destId="{1CE48392-CDF9-4266-947A-0B492BC768E9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C4199084-E5C6-4224-A4B0-197CBBACAAF0}" type="presParOf" srcId="{1CE48392-CDF9-4266-947A-0B492BC768E9}" destId="{D9562FC0-41B7-4271-9901-D4FF74B07F06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8A9D4F63-7D37-4EAD-B9B3-DEB539ED4E3A}" type="presParOf" srcId="{D9562FC0-41B7-4271-9901-D4FF74B07F06}" destId="{2F106104-BFC9-4643-9411-738AA8E0731D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{71C67EE4-CF12-48E2-B6B2-1ABBA11FF80E}" type="presParOf" srcId="{D9562FC0-41B7-4271-9901-D4FF74B07F06}" destId="{F1828722-CC1F-4541-BE30-E18331151943}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{BBD1B039-DD62-4CA7-B4AE-FBCCB1303052}" type="presParOf" srcId="{1CE48392-CDF9-4266-947A-0B492BC768E9}" destId="{E536B9FC-751B-49C5-B57C-0BDD389BE145}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{69739D56-4FAA-48C8-816F-855E66CD6792}" type="presParOf" srcId="{E536B9FC-751B-49C5-B57C-0BDD389BE145}" destId="{66418AE5-6BEB-4E2F-A6C8-C76C7C78DEE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{0A0EA907-1A8E-4CEF-95D9-23AA45601D83}" type="presParOf" srcId="{E536B9FC-751B-49C5-B57C-0BDD389BE145}" destId="{2B924A54-3462-432D-936D-34213FB98075}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{EC617B9A-C5F6-4F98-91F9-80F9754C3D21}" type="presParOf" srcId="{E536B9FC-751B-49C5-B57C-0BDD389BE145}" destId="{635C2C83-21D8-4394-AA41-4687DF62CEB5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{653C89E5-D5A8-41E0-915E-75DEBCE1FF3F}" type="presParOf" srcId="{E536B9FC-751B-49C5-B57C-0BDD389BE145}" destId="{76A8B9AD-B619-4883-B848-3C35E7541D19}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3CCF4497-92EC-44DA-A630-284D8112988B}" type="presParOf" srcId="{E536B9FC-751B-49C5-B57C-0BDD389BE145}" destId="{D5CD04AD-5B14-43F8-A06C-5CD1476C1C32}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{0B874014-9EDA-47C7-B70A-4480BD3933C5}" type="presParOf" srcId="{E536B9FC-751B-49C5-B57C-0BDD389BE145}" destId="{38115F9F-58B2-45CB-AEDC-F9F95195C14D}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="accent6">
+          <a:lumMod val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </dgm:whole>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{76B60D10-A42F-4D87-AF32-476769E55E48}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="228947" y="1167"/>
+          <a:ext cx="1066453" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="28575" tIns="19050" rIns="28575" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1500" kern="1200"/>
+            <a:t>Price .7071</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="243087" y="15307"/>
+        <a:ext cx="1038173" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{54612B88-47BC-44DB-BD5A-00B3DA781F6C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="335593" y="483944"/>
+          <a:ext cx="106645" cy="362082"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="362082"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106645" y="362082"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{FC749C24-999E-41BF-94CF-E2D02F36F7E8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="442238" y="604638"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Coaxial .7146</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="456378" y="618778"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{275E53FF-EA8E-4E2B-9470-482902755263}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="335593" y="483944"/>
+          <a:ext cx="106645" cy="965553"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="965553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106645" y="965553"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{FFCEFFBB-A4AC-45F2-A8A6-F5ACD2EBC056}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="442238" y="1208109"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Component .0789</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="456378" y="1222249"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A23D3FAF-64E7-460F-A681-3925FE70E677}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="335593" y="483944"/>
+          <a:ext cx="106645" cy="1569024"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1569024"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="106645" y="1569024"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{28476EDC-C5FE-43C9-86D5-2ABB28DB15AB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="442238" y="1811580"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Tweeters .2064</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="456378" y="1825720"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{41B6750F-A304-4939-9B06-66453410227F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1536790" y="1167"/>
+          <a:ext cx="1327153" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="28575" tIns="19050" rIns="28575" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1500" kern="1200"/>
+            <a:t>Sound .2014</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1550930" y="15307"/>
+        <a:ext cx="1298873" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E4806C1B-3BEA-4116-9450-1A02DDE3242C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1669505" y="483944"/>
+          <a:ext cx="132715" cy="362082"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="362082"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="132715" y="362082"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BEBD5F2B-346F-4C66-88CB-357629CE8E2F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1802220" y="604638"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Coaxial .1226</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1816360" y="618778"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A3131442-2358-40F7-A61D-2270904425EE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1669505" y="483944"/>
+          <a:ext cx="132715" cy="965553"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="965553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="132715" y="965553"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BC7A05EE-2176-4AF3-8C9B-A693E639F235}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1802220" y="1208109"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Component .3202</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1816360" y="1222249"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C65E5099-762E-458F-86AC-901C81AB07C2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1669505" y="483944"/>
+          <a:ext cx="132715" cy="1569024"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1569024"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="132715" y="1569024"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{6AA91A2B-F929-4124-B817-A6BF54A21706}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1802220" y="1811580"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Tweeters .5571</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1816360" y="1825720"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2F106104-BFC9-4643-9411-738AA8E0731D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3105331" y="1167"/>
+          <a:ext cx="1396470" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="28575" tIns="19050" rIns="28575" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1500" kern="1200"/>
+            <a:t>Reception .0915</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3119471" y="15307"/>
+        <a:ext cx="1368190" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{66418AE5-6BEB-4E2F-A6C8-C76C7C78DEE7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3244978" y="483944"/>
+          <a:ext cx="139647" cy="362082"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="362082"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="139647" y="362082"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{2B924A54-3462-432D-936D-34213FB98075}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3384625" y="604638"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Coaxial .5794</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3398765" y="618778"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{635C2C83-21D8-4394-AA41-4687DF62CEB5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3244978" y="483944"/>
+          <a:ext cx="139647" cy="965553"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="965553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="139647" y="965553"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{76A8B9AD-B619-4883-B848-3C35E7541D19}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3384625" y="1208109"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Component .1865</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3398765" y="1222249"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D5CD04AD-5B14-43F8-A06C-5CD1476C1C32}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3244978" y="483944"/>
+          <a:ext cx="139647" cy="1569024"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1569024"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="139647" y="1569024"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{38115F9F-58B2-45CB-AEDC-F9F95195C14D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3384625" y="1811580"/>
+          <a:ext cx="772442" cy="482776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="20955" tIns="13970" rIns="20955" bIns="13970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" kern="1200"/>
+            <a:t>Tweeters .2341</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3398765" y="1825720"/>
+        <a:ext cx="744162" cy="454496"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="7000"/>
+    <dgm:cat type="list" pri="23000"/>
+    <dgm:cat type="relationship" pri="15000"/>
+    <dgm:cat type="convert" pri="7000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="41"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="43" srcId="4" destId="41" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromL"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="primFontSz" for="des" forName="rootText" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="childText" op="equ" val="65"/>
+      <dgm:constr type="w" for="des" forName="rootComposite" refType="w"/>
+      <dgm:constr type="h" for="des" forName="rootComposite" refType="w" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="childText" refType="w" refFor="des" refForName="rootComposite" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="childText" refType="h" refFor="des" refForName="rootComposite"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="rootComposite" fact="0.25"/>
+      <dgm:constr type="sibSp" for="des" forName="childShape" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+      <dgm:constr type="sp" for="des" forName="root" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node" cnt="1">
+        <dgm:layoutNode name="root">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tL"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tR"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst>
+            <dgm:constr type="alignOff" val="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="rootComposite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node" cnt="1"/>
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="rootText" styleLbl="node1">
+              <dgm:alg type="tx"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="rootConnector" moveWith="rootText">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="" hideGeom="1">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="childShape">
+            <dgm:alg type="hierChild">
+              <dgm:param type="chAlign" val="l"/>
+              <dgm:param type="linDir" val="fromT"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="Name11" axis="ch">
+              <dgm:forEach name="Name12" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="Name13">
+                  <dgm:choose name="Name14">
+                    <dgm:if name="Name15" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midL"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name16">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midR"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name17" axis="self" ptType="node">
+                <dgm:layoutNode name="childText" styleLbl="bgAcc1">
+                  <dgm:varLst>
+                    <dgm:bulletEnabled val="1"/>
+                  </dgm:varLst>
+                  <dgm:alg type="tx"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                    <dgm:adjLst>
+                      <dgm:adj idx="1" val="0.1"/>
+                    </dgm:adjLst>
+                  </dgm:shape>
+                  <dgm:presOf axis="self desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst>
+                    <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                  </dgm:ruleLst>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10300"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B56A680-BCBF-4077-8A69-8A0E3E223100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,238 +5197,1091 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3127EA-C192-489E-90C6-B9A3B52DAB61}">
-  <dimension ref="B3:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9EF158-2029-44A9-8CA7-93AC60014193}">
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2000" max="2000" width="2.4140625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="11.08203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="2"/>
+    <col min="8" max="8" width="11.08203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="3"/>
+    <col min="10" max="10" width="11.08203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.58203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="3"/>
+    <col min="13" max="2000" width="8.6640625" style="2"/>
+    <col min="2001" max="2001" width="2.4140625" style="2" customWidth="1"/>
+    <col min="2002" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E7" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F7" s="18">
         <v>6</v>
       </c>
+      <c r="H7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <f>D7/D$10</f>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" ref="J7:K9" si="0">E7/E$10</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="27">
+        <f>AVERAGE(I7:K7)</f>
+        <v>0.70706033376123234</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D8" s="11">
         <v>0.2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F8" s="12">
         <v>3</v>
       </c>
+      <c r="H8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" ref="I8:I9" si="1">D8/D$10</f>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210528</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="28">
+        <f t="shared" ref="L8:L9" si="2">AVERAGE(I8:K8)</f>
+        <v>0.20141206675224646</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D9" s="11">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E9" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F9" s="12">
         <v>1</v>
       </c>
+      <c r="H9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="29">
+        <f t="shared" si="2"/>
+        <v>9.1527599486521186E-2</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="24">
+        <f>SUM(D7:D9)</f>
+        <v>1.3666666666666667</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" ref="E10:F10" si="3">SUM(E7:E9)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="I12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>8</v>
+      </c>
+      <c r="F13" s="18">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H13" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I13" s="17">
+        <f>D13/D$16</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" ref="J13:K15" si="4">E13/E$16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="L13" s="27">
+        <f>AVERAGE(I13:K13)</f>
+        <v>0.71464646464646464</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" ref="I14:I15" si="5">D14/D$16</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L14" s="28">
+        <f t="shared" ref="L14:L15" si="6">AVERAGE(I14:K14)</f>
+        <v>7.8914141414141423E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D15" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="H15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="5"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="6"/>
+        <v>0.20643939393939395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="24">
+        <f>SUM(D13:D15)</f>
+        <v>1.375</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" ref="E16" si="7">SUM(E13:E15)</f>
+        <v>12</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" ref="F16" si="8">SUM(F13:F15)</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="17">
+        <f>D19/D$22</f>
+        <v>0.125</v>
+      </c>
+      <c r="J19" s="17">
+        <f>E19/E$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="17">
+        <f>F19/F$22</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L19" s="27">
+        <f>AVERAGE(I19:K19)</f>
+        <v>0.12261904761904763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" ref="I20:K21" si="9">D20/D$22</f>
+        <v>0.375</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="9"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" ref="L20:L21" si="10">AVERAGE(I20:K20)</f>
+        <v>0.32023809523809527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="9"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L21" s="29">
+        <f t="shared" si="10"/>
+        <v>0.55714285714285716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="24">
+        <f>SUM(D19:D21)</f>
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E22" s="24">
+        <f t="shared" ref="E22" si="11">SUM(E19:E21)</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" ref="F22" si="12">SUM(F19:F21)</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
         <v>4</v>
       </c>
+      <c r="F25" s="18">
+        <v>2</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="17">
+        <f>D25/D$28</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" ref="J25:K27" si="13">E25/E$28</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="27">
+        <f>AVERAGE(I25:K25)</f>
+        <v>0.57936507936507942</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" ref="I26:I27" si="14">D26/D$28</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="L26" s="28">
+        <f t="shared" ref="L26:L27" si="15">AVERAGE(I26:K26)</f>
+        <v>0.18650793650793651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="14"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" si="15"/>
+        <v>0.2341269841269841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="24">
+        <f>SUM(D25:D27)</f>
+        <v>1.75</v>
+      </c>
+      <c r="E28" s="24">
+        <f t="shared" ref="E28" si="16">SUM(E25:E27)</f>
+        <v>6</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" ref="F28" si="17">SUM(F25:F27)</f>
         <v>4</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="D11" s="2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="30" cm="1">
+        <f t="array" ref="D35">SUMPRODUCT(D7:F7,TRANSPOSE($L$7:$L$9))</f>
+        <v>2.2632862644415921</v>
+      </c>
+      <c r="E35" s="18">
+        <f>D35/L7</f>
+        <v>3.2009803921568634</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="32">
+        <f>AVERAGE(E35:E37)</f>
+        <v>3.0958034099089407</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C36" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.33333333333333331</v>
+      <c r="D36" s="10" cm="1">
+        <f t="array" ref="D36">SUMPRODUCT(D8:F8,TRANSPOSE($L$7:$L$9))</f>
+        <v>0.61740693196405649</v>
+      </c>
+      <c r="E36" s="12">
+        <f>D36/L8</f>
+        <v>3.065391969407266</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="32">
+        <f>(I35-I34)/(I34-1)</f>
+        <v>4.7901704954470326E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C37" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="13" cm="1">
+        <f t="array" ref="D37">SUMPRODUCT(D9:F9,TRANSPOSE($L$7:$L$9))</f>
+        <v>0.27650834403080871</v>
+      </c>
+      <c r="E37" s="15">
+        <f>D37/L9</f>
+        <v>3.0210378681626926</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="32">
+        <f>0.58</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H38" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="32">
+        <f>I36/I37</f>
+        <v>8.2589146473224712E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="33" t="str">
+        <f>IF(I38&lt;=0.1, "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C42" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="D42" s="30" cm="1">
+        <f t="array" ref="D42">SUMPRODUCT(D13:F13, TRANSPOSE($L$13:$L$15))</f>
+        <v>2.1717171717171717</v>
+      </c>
+      <c r="E42" s="18">
+        <f>D42/L13</f>
+        <v>3.0388692579505299</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="36">
+        <f>AVERAGE(E42:E44)</f>
+        <v>3.0183672246175566</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="10" cm="1">
+        <f t="array" ref="D43">SUMPRODUCT(D14:F14, TRANSPOSE($L$13:$L$15))</f>
+        <v>0.23705808080808083</v>
+      </c>
+      <c r="E43" s="12">
+        <f>D43/L14</f>
+        <v>3.004</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="36">
+        <f>(I42-I41)/(I41-1)</f>
+        <v>9.1836123087782884E-3</v>
+      </c>
+      <c r="K43" s="37"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C44" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D44" s="13" cm="1">
+        <f t="array" ref="D44">SUMPRODUCT(D15:F15, TRANSPOSE($L$13:$L$15))</f>
+        <v>0.62184343434343436</v>
+      </c>
+      <c r="E44" s="15">
+        <f>D44/L15</f>
+        <v>3.0122324159021407</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="36">
+        <f>0.58</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H45" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="36">
+        <f>I43/I44</f>
+        <v>1.5833814325479808E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="38" t="str">
+        <f>IF(I45&lt;=0.1, "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="21">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C13" s="3"/>
+    <row r="49" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C49" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="30" cm="1">
+        <f t="array" ref="D49">SUMPRODUCT(D19:F19, TRANSPOSE($L$19:$L$21))</f>
+        <v>0.36865079365079367</v>
+      </c>
+      <c r="E49" s="18">
+        <f>D49/L19</f>
+        <v>3.0064724919093853</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="36">
+        <f>AVERAGE(E49:E51)</f>
+        <v>3.0183247941395699</v>
+      </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="10" cm="1">
+        <f t="array" ref="D50">SUMPRODUCT(D20:F20, TRANSPOSE($L$19:$L$21))</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="E50" s="12">
+        <f>D50/L20</f>
+        <v>3.0185873605947955</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="36">
+        <f>(I49-I48)/(I48-1)</f>
+        <v>9.1623970697849444E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C51" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D51" s="13" cm="1">
+        <f t="array" ref="D51">SUMPRODUCT(D21:F21, TRANSPOSE($L$19:$L$21))</f>
+        <v>1.6880952380952381</v>
+      </c>
+      <c r="E51" s="15">
+        <f>D51/L21</f>
+        <v>3.0299145299145298</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="36">
+        <f>0.58</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H52" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="36">
+        <f>I50/I51</f>
+        <v>1.5797236327215424E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="38" t="str">
+        <f>IF(I52&lt;=0.1, "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C56" s="16" t="s">
         <v>5</v>
       </c>
+      <c r="D56" s="30" cm="1">
+        <f t="array" ref="D56">SUMPRODUCT(D25:F25, TRANSPOSE($L$25:$L$27))</f>
+        <v>1.7936507936507937</v>
+      </c>
+      <c r="E56" s="18">
+        <f>D56/L25</f>
+        <v>3.095890410958904</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="36">
+        <f>AVERAGE(E56:E58)</f>
+        <v>3.053901203220224</v>
+      </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C57" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="10" cm="1">
+        <f t="array" ref="D57">SUMPRODUCT(D26:F26, TRANSPOSE($L$25:$L$27))</f>
+        <v>0.56547619047619047</v>
+      </c>
+      <c r="E57" s="12">
+        <f>D57/L26</f>
+        <v>3.0319148936170213</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="36">
+        <f>(I56-I55)/(I55-1)</f>
+        <v>2.6950601610111979E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C58" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.25</v>
+      <c r="D58" s="13" cm="1">
+        <f t="array" ref="D58">SUMPRODUCT(D27:F27, TRANSPOSE($L$25:$L$27))</f>
+        <v>0.71031746031746035</v>
+      </c>
+      <c r="E58" s="15">
+        <f>D58/L27</f>
+        <v>3.0338983050847461</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="36">
+        <f>0.58</f>
+        <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H59" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="36">
+        <f>I57/I58</f>
+        <v>4.6466554500193068E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="38" t="str">
+        <f>IF(I59&lt;=0.1, "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C63" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D64" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C65" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="27">
+        <f>SUMPRODUCT(CHOOSE({1;2;3},L13,L19,L25),$L$7:$L$9)</f>
+        <v>0.5830230185589621</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C66" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="28">
+        <f>SUMPRODUCT(CHOOSE({1;2;3},L14,L20,L26),$L$7:$L$9)</f>
+        <v>0.13736749949522736</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C67" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.5</v>
+      <c r="D67" s="29">
+        <f>SUMPRODUCT(CHOOSE({1;2;3},L15,L21,L27),$L$7:$L$9)</f>
+        <v>0.27960948194581059</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="40" t="str">
+        <f>_xlfn.XLOOKUP(MAX(D65:D67),D65:D67,C65:C67)</f>
+        <v>Coaxial</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D69" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C70" s="5"/>
+      <c r="D70" s="4"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D72" s="4"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C73" s="41"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="I39 I46 I53 I60">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/quizzes/week3/w3_calcs.xlsx
+++ b/quizzes/week3/w3_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\quizzes\week3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8A4240-2B9B-4540-88ED-31C1DF1F4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56BA021-59D1-4679-B9D9-7294415B616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0F7E80EF-D48E-4510-842D-75B7F8EC6273}"/>
   </bookViews>
@@ -161,8 +161,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,10 +381,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -399,31 +399,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -441,31 +441,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -474,14 +474,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -489,11 +483,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5198,10 +5189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9EF158-2029-44A9-8CA7-93AC60014193}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5216,8 +5207,8 @@
     <col min="10" max="10" width="11.08203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="14.58203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="3"/>
-    <col min="13" max="2000" width="8.6640625" style="2"/>
-    <col min="2001" max="2001" width="2.4140625" style="2" customWidth="1"/>
+    <col min="13" max="1999" width="8.6640625" style="2"/>
+    <col min="2000" max="2001" width="2.4140625" style="2" customWidth="1"/>
     <col min="2002" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -5822,11 +5813,11 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -5843,7 +5834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C35" s="16" t="s">
         <v>0</v>
       </c>
@@ -5863,7 +5854,7 @@
         <v>3.0958034099089407</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C36" s="19" t="s">
         <v>1</v>
       </c>
@@ -5883,7 +5874,7 @@
         <v>4.7901704954470326E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C37" s="20" t="s">
         <v>2</v>
       </c>
@@ -5903,7 +5894,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H38" s="22" t="s">
         <v>18</v>
       </c>
@@ -5912,7 +5903,7 @@
         <v>8.2589146473224712E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H39" s="6" t="s">
         <v>22</v>
       </c>
@@ -5921,7 +5912,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
@@ -5938,7 +5929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C42" s="16" t="s">
         <v>5</v>
       </c>
@@ -5953,12 +5944,12 @@
       <c r="H42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I42" s="35">
         <f>AVERAGE(E42:E44)</f>
         <v>3.0183672246175566</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C43" s="19" t="s">
         <v>6</v>
       </c>
@@ -5973,13 +5964,12 @@
       <c r="H43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="35">
         <f>(I42-I41)/(I41-1)</f>
         <v>9.1836123087782884E-3</v>
       </c>
-      <c r="K43" s="37"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C44" s="20" t="s">
         <v>3</v>
       </c>
@@ -5994,30 +5984,30 @@
       <c r="H44" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="35">
         <f>0.58</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H45" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="35">
         <f>I43/I44</f>
         <v>1.5833814325479808E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="38" t="str">
+      <c r="I46" s="36" t="str">
         <f>IF(I45&lt;=0.1, "Yes", "No")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
@@ -6049,7 +6039,7 @@
       <c r="H49" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="35">
         <f>AVERAGE(E49:E51)</f>
         <v>3.0183247941395699</v>
       </c>
@@ -6069,7 +6059,7 @@
       <c r="H50" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="35">
         <f>(I49-I48)/(I48-1)</f>
         <v>9.1623970697849444E-3</v>
       </c>
@@ -6089,7 +6079,7 @@
       <c r="H51" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="35">
         <f>0.58</f>
         <v>0.57999999999999996</v>
       </c>
@@ -6098,7 +6088,7 @@
       <c r="H52" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="35">
         <f>I50/I51</f>
         <v>1.5797236327215424E-2</v>
       </c>
@@ -6107,7 +6097,7 @@
       <c r="H53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="38" t="str">
+      <c r="I53" s="36" t="str">
         <f>IF(I52&lt;=0.1, "Yes", "No")</f>
         <v>Yes</v>
       </c>
@@ -6144,7 +6134,7 @@
       <c r="H56" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I56" s="35">
         <f>AVERAGE(E56:E58)</f>
         <v>3.053901203220224</v>
       </c>
@@ -6164,7 +6154,7 @@
       <c r="H57" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="35">
         <f>(I56-I55)/(I55-1)</f>
         <v>2.6950601610111979E-2</v>
       </c>
@@ -6184,7 +6174,7 @@
       <c r="H58" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="35">
         <f>0.58</f>
         <v>0.57999999999999996</v>
       </c>
@@ -6193,7 +6183,7 @@
       <c r="H59" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="36">
+      <c r="I59" s="35">
         <f>I57/I58</f>
         <v>4.6466554500193068E-2</v>
       </c>
@@ -6202,7 +6192,7 @@
       <c r="H60" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I60" s="38" t="str">
+      <c r="I60" s="36" t="str">
         <f>IF(I59&lt;=0.1, "Yes", "No")</f>
         <v>Yes</v>
       </c>
@@ -6218,7 +6208,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="37" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6253,7 +6243,7 @@
       <c r="C68" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="40" t="str">
+      <c r="D68" s="38" t="str">
         <f>_xlfn.XLOOKUP(MAX(D65:D67),D65:D67,C65:C67)</f>
         <v>Coaxial</v>
       </c>
@@ -6267,9 +6257,6 @@
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C73" s="41"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I39 I46 I53 I60">
